--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -525,16 +525,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.72408327130686</v>
+        <v>1.768962</v>
       </c>
       <c r="H2">
-        <v>1.72408327130686</v>
+        <v>5.306886</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.90069235430804</v>
+        <v>1.938882</v>
       </c>
       <c r="N2">
-        <v>1.90069235430804</v>
+        <v>5.816646</v>
       </c>
       <c r="O2">
-        <v>0.6767737842864792</v>
+        <v>0.6428166476325956</v>
       </c>
       <c r="P2">
-        <v>0.6767737842864792</v>
+        <v>0.6428166476325955</v>
       </c>
       <c r="Q2">
-        <v>3.276951891963343</v>
+        <v>3.429808580484001</v>
       </c>
       <c r="R2">
-        <v>3.276951891963343</v>
+        <v>30.868277224356</v>
       </c>
       <c r="S2">
-        <v>0.6767737842864792</v>
+        <v>0.6428166476325956</v>
       </c>
       <c r="T2">
-        <v>0.6767737842864792</v>
+        <v>0.6428166476325955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +587,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.72408327130686</v>
+        <v>1.768962</v>
       </c>
       <c r="H3">
-        <v>1.72408327130686</v>
+        <v>5.306886</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +605,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.907768018181026</v>
+        <v>1.077346666666667</v>
       </c>
       <c r="N3">
-        <v>0.907768018181026</v>
+        <v>3.23204</v>
       </c>
       <c r="O3">
-        <v>0.3232262157135209</v>
+        <v>0.3571833523674045</v>
       </c>
       <c r="P3">
-        <v>0.3232262157135209</v>
+        <v>0.3571833523674045</v>
       </c>
       <c r="Q3">
-        <v>1.565067654373288</v>
+        <v>1.90578531416</v>
       </c>
       <c r="R3">
-        <v>1.565067654373288</v>
+        <v>17.15206782744</v>
       </c>
       <c r="S3">
-        <v>0.3232262157135209</v>
+        <v>0.3571833523674045</v>
       </c>
       <c r="T3">
-        <v>0.3232262157135209</v>
+        <v>0.3571833523674045</v>
       </c>
     </row>
   </sheetData>
